--- a/SCBAA/2020/ARMM.xlsx
+++ b/SCBAA/2020/ARMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741A92A7-8A20-46E9-8E4F-EE7481581C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C1334-0657-49E5-8FB9-0369960005B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="1545" windowWidth="14625" windowHeight="12540" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Isabela" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -242,7 +249,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +478,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1032,7 +1045,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1171,6 +1184,33 @@
     </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="84">
@@ -1571,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,7 +1736,9 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="45"/>
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1705,16 +1747,20 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1723,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="29">
+      <c r="E14" s="56">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
@@ -1735,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1744,7 +1790,9 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1753,7 +1801,9 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1762,7 +1812,9 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1771,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="29">
+      <c r="E19" s="56">
         <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
@@ -1783,7 +1835,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -1792,7 +1844,9 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1801,7 +1855,9 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1810,7 +1866,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1819,7 +1875,9 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1828,7 +1886,9 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1837,7 +1897,9 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1846,7 +1908,9 @@
       <c r="D27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E27" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -1864,7 +1928,9 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1873,7 +1939,9 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -1882,7 +1950,9 @@
         <v>41</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1891,7 +1961,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="58"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -1900,7 +1970,9 @@
       <c r="D33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -1909,16 +1981,20 @@
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1927,7 +2003,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="57">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1936,7 +2014,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="29">
+      <c r="E37" s="56">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
@@ -1946,7 +2024,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -1955,7 +2033,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="60"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -1964,7 +2042,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="60"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1973,7 +2051,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="58"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -1982,7 +2060,9 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="47"/>
+      <c r="E42" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -1991,7 +2071,9 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="47"/>
+      <c r="E43" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -2000,7 +2082,9 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="47"/>
+      <c r="E44" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -2009,7 +2093,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="54"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -2018,7 +2102,9 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="49"/>
+      <c r="E46" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -2027,7 +2113,9 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="49"/>
+      <c r="E47" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -2036,7 +2124,9 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="39"/>
+      <c r="E48" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -2045,7 +2135,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="25"/>
+      <c r="E49" s="54"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -2054,7 +2144,9 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -2063,7 +2155,9 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -2072,7 +2166,9 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="44"/>
+      <c r="E52" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -2081,7 +2177,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="25"/>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -2090,7 +2186,9 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -2099,7 +2197,9 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="38"/>
+      <c r="E55" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -2108,7 +2208,9 @@
       <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -2117,7 +2219,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="28"/>
+      <c r="E57" s="58"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -2126,7 +2228,9 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="39"/>
+      <c r="E58" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -2135,7 +2239,9 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="44"/>
+      <c r="E59" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -2144,7 +2250,9 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="24"/>
+      <c r="E60" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -2153,7 +2261,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="28"/>
+      <c r="E61" s="63"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -2162,7 +2270,9 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="47"/>
+      <c r="E62" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -2171,7 +2281,9 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="47"/>
+      <c r="E63" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -2180,7 +2292,9 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="35"/>
+      <c r="E64" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -2189,7 +2303,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="31"/>
+      <c r="E65" s="54"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -2198,7 +2312,9 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="47"/>
+      <c r="E66" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -2207,7 +2323,9 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -2216,7 +2334,9 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="47"/>
+      <c r="E68" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -2225,7 +2345,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="35"/>
+      <c r="E69" s="58"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -2234,7 +2354,9 @@
       <c r="D70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -2243,7 +2365,9 @@
       <c r="D71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -2252,7 +2376,9 @@
       <c r="D72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="33"/>
+      <c r="E72" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -2261,7 +2387,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="31"/>
+      <c r="E73" s="58"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -2270,7 +2396,7 @@
         <v>53</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="60"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -2279,7 +2405,9 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="45"/>
+      <c r="E75" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -2288,7 +2416,9 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="45"/>
+      <c r="E76" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -2297,7 +2427,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="61"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -2306,7 +2436,9 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="44"/>
+      <c r="E78" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -2315,7 +2447,9 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="39"/>
+      <c r="E79" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -2324,7 +2458,7 @@
         <v>55</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="18"/>
+      <c r="E80" s="59"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -2333,7 +2467,9 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="45"/>
+      <c r="E81" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -2342,7 +2478,9 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="45"/>
+      <c r="E82" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -2351,7 +2489,7 @@
         <v>56</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="19"/>
+      <c r="E83" s="60"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -2360,7 +2498,9 @@
       <c r="D84" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="33"/>
+      <c r="E84" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -2369,7 +2509,9 @@
       <c r="D85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="33"/>
+      <c r="E85" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -2378,7 +2520,7 @@
         <v>57</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="19"/>
+      <c r="E86" s="60"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -2387,7 +2529,9 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="45"/>
+      <c r="E87" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -2396,7 +2540,9 @@
       <c r="D88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="19"/>
+      <c r="E88" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -2405,7 +2551,7 @@
         <v>52</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="19"/>
+      <c r="E89" s="60"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -2414,7 +2560,9 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="45"/>
+      <c r="E90" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -2423,7 +2571,9 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="45"/>
+      <c r="E91" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -2432,14 +2582,16 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="48"/>
+      <c r="E92" s="60">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="34">
+      <c r="E93" s="64">
         <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
@@ -2451,7 +2603,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="12"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="19"/>
+      <c r="E94" s="60"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -2471,7 +2623,9 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="38"/>
+      <c r="E96" s="54">
+        <v>0</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
       <c r="I96" s="9"/>
@@ -2483,7 +2637,7 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="19"/>
+      <c r="E97" s="60"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8"/>
       <c r="H97" s="10"/>
@@ -2495,7 +2649,9 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="39"/>
+      <c r="E98" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -2503,7 +2659,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="31"/>
+      <c r="E99" s="58"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
@@ -2511,7 +2667,9 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="39"/>
+      <c r="E100" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
@@ -2519,7 +2677,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="31"/>
+      <c r="E101" s="58"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
@@ -2527,7 +2685,9 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="25"/>
+      <c r="E102" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -2535,7 +2695,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="31"/>
+      <c r="E103" s="58"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -2543,7 +2703,9 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="24"/>
+      <c r="E104" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
@@ -2551,7 +2713,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="31"/>
+      <c r="E105" s="58"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -2559,7 +2721,9 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="38"/>
+      <c r="E106" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
@@ -2567,7 +2731,7 @@
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="31"/>
+      <c r="E107" s="58"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -2575,7 +2739,9 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="39"/>
+      <c r="E108" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
@@ -2584,7 +2750,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="31"/>
+      <c r="E109" s="58"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
@@ -2592,7 +2758,9 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="37"/>
+      <c r="E110" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
@@ -3823,7 +3991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E8730-432B-4364-AF7F-AFDD368C9583}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
